--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Wipro Ltd/Pruned_Excel/Semi_Final/Wipro Ltd_Semi_Final.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Wipro Ltd/Pruned_Excel/Semi_Final/Wipro Ltd_Semi_Final.xlsx
@@ -18,11 +18,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="111">
   <si>
     <t>Balance Sheet of Wipro(in Rs. Cr.)</t>
   </si>
   <si>
+    <t>Month</t>
+  </si>
+  <si>
     <t>Total share capital</t>
   </si>
   <si>
@@ -59,64 +62,67 @@
     <t>Total assets</t>
   </si>
   <si>
-    <t>Mar 05</t>
-  </si>
-  <si>
-    <t>Mar 06</t>
-  </si>
-  <si>
-    <t>Mar 07</t>
-  </si>
-  <si>
-    <t>Mar 08</t>
-  </si>
-  <si>
-    <t>Mar 09</t>
-  </si>
-  <si>
-    <t>Mar 10</t>
-  </si>
-  <si>
-    <t>Mar 11</t>
-  </si>
-  <si>
-    <t>Mar 12</t>
-  </si>
-  <si>
-    <t>Mar 13</t>
-  </si>
-  <si>
-    <t>Mar 14</t>
-  </si>
-  <si>
-    <t>Mar 15</t>
-  </si>
-  <si>
-    <t>Mar 16</t>
-  </si>
-  <si>
-    <t>Mar 17</t>
-  </si>
-  <si>
-    <t>Mar 18</t>
-  </si>
-  <si>
-    <t>Mar 19</t>
-  </si>
-  <si>
-    <t>Mar 20</t>
-  </si>
-  <si>
-    <t>Mar 21</t>
-  </si>
-  <si>
-    <t>Mar 22</t>
-  </si>
-  <si>
-    <t>Mar 23</t>
-  </si>
-  <si>
-    <t>Mar 24</t>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>03</t>
   </si>
   <si>
     <t>Cash Flow of Wipro(in Rs. Cr.)</t>
@@ -215,9 +221,6 @@
     <t>Quarterly Results of Wipro(in Rs. Cr.)</t>
   </si>
   <si>
-    <t>Month</t>
-  </si>
-  <si>
     <t>Quarter</t>
   </si>
   <si>
@@ -275,46 +278,7 @@
     <t>Diluted eps.</t>
   </si>
   <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>2024</t>
-  </si>
-  <si>
     <t>12</t>
-  </si>
-  <si>
-    <t>03</t>
   </si>
   <si>
     <t>06</t>
@@ -744,13 +708,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -790,824 +754,887 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
         <v>140.71</v>
-      </c>
-      <c r="C2">
-        <v>4751.73</v>
       </c>
       <c r="D2">
         <v>4751.73</v>
       </c>
       <c r="E2">
+        <v>4751.73</v>
+      </c>
+      <c r="F2">
         <v>4892.44</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>884.45</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1788.53</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>6690.57</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>892.24</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>1158.2</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>4052.27</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>2638.3</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>6690.57</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
         <v>285.15</v>
-      </c>
-      <c r="C3">
-        <v>6135.3</v>
       </c>
       <c r="D3">
         <v>6135.3</v>
       </c>
       <c r="E3">
+        <v>6135.3</v>
+      </c>
+      <c r="F3">
         <v>6420.45</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1413.95</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>2833.28</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>9266.49</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1102.38</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>1730.61</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>5227.95</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>4038.54</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>9266.49</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
         <v>291.8</v>
-      </c>
-      <c r="C4">
-        <v>9025.1</v>
       </c>
       <c r="D4">
         <v>9025.1</v>
       </c>
       <c r="E4">
+        <v>9025.1</v>
+      </c>
+      <c r="F4">
         <v>9316.9</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>2998.9</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>3764.1</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>13322.5</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1645.9</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>2635.4</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>7030.7</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>6291.8</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>13322.5</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
         <v>292.3</v>
-      </c>
-      <c r="C5">
-        <v>11260.4</v>
       </c>
       <c r="D5">
         <v>11260.4</v>
       </c>
       <c r="E5">
+        <v>11260.4</v>
+      </c>
+      <c r="F5">
         <v>11552.7</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>3361.6</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>4742.3</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>20175.4</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>2239.5</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>3617.2</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>8169</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>12006.4</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>20175.4</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
         <v>293</v>
-      </c>
-      <c r="C6">
-        <v>12220.5</v>
       </c>
       <c r="D6">
         <v>12220.5</v>
       </c>
       <c r="E6">
+        <v>12220.5</v>
+      </c>
+      <c r="F6">
         <v>12513.5</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>4039.1</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>12278.5</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>24903.9</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>3017.8</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>4491.4</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>11444.5</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>13459.4</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>24903.9</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
         <v>293.6</v>
-      </c>
-      <c r="C7">
-        <v>17396.8</v>
       </c>
       <c r="D7">
         <v>17396.8</v>
       </c>
       <c r="E7">
+        <v>17396.8</v>
+      </c>
+      <c r="F7">
         <v>17690.4</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>3378.5</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>12544.9</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>30327.4</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>3494.5</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>4647.4</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>13648.7</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>16678.7</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>30327.4</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
         <v>490.8</v>
-      </c>
-      <c r="C8">
-        <v>20829.4</v>
       </c>
       <c r="D8">
         <v>20829.4</v>
       </c>
       <c r="E8">
+        <v>20829.4</v>
+      </c>
+      <c r="F8">
         <v>21320.2</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>1245.4</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>10324.6</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>34119.8</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>4104.5</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>4633.4</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>12407.6</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>21712.2</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>34119.8</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
         <v>491.7</v>
-      </c>
-      <c r="C9">
-        <v>23860.8</v>
       </c>
       <c r="D9">
         <v>23860.8</v>
       </c>
       <c r="E9">
+        <v>23860.8</v>
+      </c>
+      <c r="F9">
         <v>24352.5</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>2050.7</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>11740.6</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>38595.9</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>4196.1</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>4951</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>13137.7</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>25458.2</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>38595.9</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
         <v>492.6</v>
-      </c>
-      <c r="C10">
-        <v>23736.9</v>
       </c>
       <c r="D10">
         <v>23736.9</v>
       </c>
       <c r="E10">
+        <v>23736.9</v>
+      </c>
+      <c r="F10">
         <v>24229.5</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>3805.4</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>16124.6</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>40706.6</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>3556</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>4288.3</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>12321.8</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>28384.8</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>40706.6</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
         <v>493.2</v>
-      </c>
-      <c r="C11">
-        <v>28862.7</v>
       </c>
       <c r="D11">
         <v>28862.7</v>
       </c>
       <c r="E11">
+        <v>28862.7</v>
+      </c>
+      <c r="F11">
         <v>29355.9</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>2401.3</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>14915.6</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>45736.9</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>3621.5</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>4250.1</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>13132.7</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>32604.2</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>45736.9</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
         <v>493.7</v>
-      </c>
-      <c r="C12">
-        <v>34127.9</v>
       </c>
       <c r="D12">
         <v>34127.9</v>
       </c>
       <c r="E12">
+        <v>34127.9</v>
+      </c>
+      <c r="F12">
         <v>34621.6</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>2551.1</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>17365.3</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>53408.5</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>3570</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>4399.6</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>13553</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>39855.5</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>53408.5</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
         <v>494.1</v>
-      </c>
-      <c r="C13">
-        <v>40731.6</v>
       </c>
       <c r="D13">
         <v>40731.6</v>
       </c>
       <c r="E13">
+        <v>40731.6</v>
+      </c>
+      <c r="F13">
         <v>41225.7</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>4657.5</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>15211.9</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>58924.9</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>3641.8</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>4392.6</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>13664.6</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>45260.3</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>58924.9</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
         <v>486.1</v>
-      </c>
-      <c r="C14">
-        <v>46219.5</v>
       </c>
       <c r="D14">
         <v>46219.5</v>
       </c>
       <c r="E14">
+        <v>46219.5</v>
+      </c>
+      <c r="F14">
         <v>46705.6</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>4375.8</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>13839.9</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>63156.9</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>3755.5</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>5056.3</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>14429.8</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>48727.1</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>63156.9</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
         <v>904.8</v>
-      </c>
-      <c r="C15">
-        <v>41357.8</v>
       </c>
       <c r="D15">
         <v>41357.8</v>
       </c>
       <c r="E15">
+        <v>41357.8</v>
+      </c>
+      <c r="F15">
         <v>42262.6</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>5418.6</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>15035.9</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>58671.3</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>3802.6</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>5657.6</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>15704</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>42967.3</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>58671.3</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
         <v>1206.8</v>
-      </c>
-      <c r="C16">
-        <v>48185.2</v>
       </c>
       <c r="D16">
         <v>48185.2</v>
       </c>
       <c r="E16">
+        <v>48185.2</v>
+      </c>
+      <c r="F16">
         <v>49392</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>5397.9</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>16144.6</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>66998.10000000001</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>3874.2</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>6513.7</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>19267.7</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>47730.4</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>66998.10000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
         <v>1142.7</v>
-      </c>
-      <c r="C17">
-        <v>45311</v>
       </c>
       <c r="D17">
         <v>45311</v>
       </c>
       <c r="E17">
+        <v>45311</v>
+      </c>
+      <c r="F17">
         <v>46453.7</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>5769.1</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>16443.8</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>65306.4</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>5863.3</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>8512.9</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>19593.1</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>45713.3</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>65306.4</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
         <v>1095.8</v>
-      </c>
-      <c r="C18">
-        <v>44145.8</v>
       </c>
       <c r="D18">
         <v>44145.8</v>
       </c>
       <c r="E18">
+        <v>44145.8</v>
+      </c>
+      <c r="F18">
         <v>45241.6</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>6705.3</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>18132.4</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>65736.3</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>6578.7</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>9136.1</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>20356.8</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>45379.5</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>65736.3</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19">
         <v>1096.4</v>
-      </c>
-      <c r="C19">
-        <v>53254.3</v>
       </c>
       <c r="D19">
         <v>53254.3</v>
       </c>
       <c r="E19">
+        <v>53254.3</v>
+      </c>
+      <c r="F19">
         <v>54350.7</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>9446.9</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>23173.7</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>80382.8</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>7386.6</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>9622.200000000001</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>28610.6</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>51772.2</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>80382.8</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
         <v>1097.6</v>
-      </c>
-      <c r="C20">
-        <v>61101.5</v>
       </c>
       <c r="D20">
         <v>61101.5</v>
       </c>
       <c r="E20">
+        <v>61101.5</v>
+      </c>
+      <c r="F20">
         <v>62762.3</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>7003.9</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>18842.8</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>85307.60000000001</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>8233.799999999999</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>9428.5</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>31329.8</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>53977.8</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>85307.60000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
         <v>1045</v>
-      </c>
-      <c r="C21">
-        <v>56736.9</v>
       </c>
       <c r="D21">
         <v>56736.9</v>
       </c>
       <c r="E21">
+        <v>56736.9</v>
+      </c>
+      <c r="F21">
         <v>57781.9</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>7100.3</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>18445.4</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>81648.60000000001</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>7297.8</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>8529.200000000001</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>31084.8</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>50563.8</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>81648.60000000001</v>
       </c>
     </row>
@@ -1618,618 +1645,681 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
+        <v>1757.02</v>
+      </c>
+      <c r="D2">
+        <v>1666.42</v>
+      </c>
+      <c r="E2">
+        <v>-874.58</v>
+      </c>
+      <c r="F2">
+        <v>-550.61</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>246.8</v>
+      </c>
+      <c r="I2">
+        <v>290.09</v>
+      </c>
+      <c r="J2">
+        <v>536.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>2340.43</v>
+      </c>
+      <c r="D3">
+        <v>1912.25</v>
+      </c>
+      <c r="E3">
+        <v>-1694.42</v>
+      </c>
+      <c r="F3">
+        <v>59.8</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>277.63</v>
+      </c>
+      <c r="I3">
+        <v>545.38</v>
+      </c>
+      <c r="J3">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
+        <v>3176.2</v>
+      </c>
+      <c r="D4">
+        <v>2674.6</v>
+      </c>
+      <c r="E4">
+        <v>-1881.9</v>
+      </c>
+      <c r="F4">
+        <v>238.5</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1031.2</v>
+      </c>
+      <c r="I4">
+        <v>818</v>
+      </c>
+      <c r="J4">
+        <v>1849.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <v>3469.7</v>
+      </c>
+      <c r="D5">
+        <v>715.9</v>
+      </c>
+      <c r="E5">
+        <v>-1127.5</v>
+      </c>
+      <c r="F5">
+        <v>2290.9</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1879.3</v>
+      </c>
+      <c r="I5">
+        <v>1852.8</v>
+      </c>
+      <c r="J5">
+        <v>3732.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <v>3547.9</v>
+      </c>
+      <c r="D6">
+        <v>4344.5</v>
+      </c>
+      <c r="E6">
+        <v>-3662.7</v>
+      </c>
+      <c r="F6">
+        <v>-70.7</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>611.1</v>
+      </c>
+      <c r="I6">
+        <v>3798.1</v>
+      </c>
+      <c r="J6">
+        <v>4409.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>5688.8</v>
+      </c>
+      <c r="D7">
+        <v>4477.4</v>
+      </c>
+      <c r="E7">
+        <v>-3064.6</v>
+      </c>
+      <c r="F7">
+        <v>-96.2</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1316.6</v>
+      </c>
+      <c r="I7">
+        <v>4347.7</v>
+      </c>
+      <c r="J7">
+        <v>5664.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
+        <v>5705.5</v>
+      </c>
+      <c r="D8">
+        <v>3711.2</v>
+      </c>
+      <c r="E8">
+        <v>-1474</v>
+      </c>
+      <c r="F8">
+        <v>-2733.3</v>
+      </c>
+      <c r="G8">
+        <v>32.3</v>
+      </c>
+      <c r="H8">
+        <v>-461</v>
+      </c>
+      <c r="I8">
+        <v>5664.3</v>
+      </c>
+      <c r="J8">
+        <v>5203.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>5918.6</v>
+      </c>
+      <c r="D9">
+        <v>2997.9</v>
+      </c>
+      <c r="E9">
+        <v>-339.8</v>
+      </c>
+      <c r="F9">
+        <v>-1723.8</v>
+      </c>
+      <c r="G9">
+        <v>95.2</v>
+      </c>
+      <c r="H9">
+        <v>1029.5</v>
+      </c>
+      <c r="I9">
+        <v>5203.3</v>
+      </c>
+      <c r="J9">
+        <v>6232.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
+        <v>7205.1</v>
+      </c>
+      <c r="D10">
+        <v>6119.2</v>
+      </c>
+      <c r="E10">
+        <v>-3573.1</v>
+      </c>
+      <c r="F10">
+        <v>-1005.5</v>
+      </c>
+      <c r="G10">
+        <v>27.1</v>
+      </c>
+      <c r="H10">
+        <v>1567.7</v>
+      </c>
+      <c r="I10">
+        <v>6232.7</v>
+      </c>
+      <c r="J10">
+        <v>7800.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
+        <v>9608.200000000001</v>
+      </c>
+      <c r="D11">
+        <v>6588.6</v>
+      </c>
+      <c r="E11">
+        <v>239.6</v>
+      </c>
+      <c r="F11">
+        <v>-4088.6</v>
+      </c>
+      <c r="G11">
+        <v>-49.3</v>
+      </c>
+      <c r="H11">
+        <v>2754.5</v>
+      </c>
+      <c r="I11">
+        <v>7800.4</v>
+      </c>
+      <c r="J11">
+        <v>10554.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
+        <v>10557</v>
+      </c>
+      <c r="D12">
+        <v>7703.6</v>
+      </c>
+      <c r="E12">
+        <v>-1495</v>
+      </c>
+      <c r="F12">
+        <v>-1836.1</v>
+      </c>
+      <c r="G12">
+        <v>15.1</v>
+      </c>
+      <c r="H12">
+        <v>4387.6</v>
+      </c>
+      <c r="I12">
+        <v>10554.9</v>
+      </c>
+      <c r="J12">
+        <v>14942.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
+        <v>8200.5</v>
+      </c>
+      <c r="D13">
+        <v>6686.7</v>
+      </c>
+      <c r="E13">
+        <v>-9805</v>
+      </c>
+      <c r="F13">
+        <v>-3489.7</v>
+      </c>
+      <c r="G13">
+        <v>31.3</v>
+      </c>
+      <c r="H13">
+        <v>-6576.7</v>
+      </c>
+      <c r="I13">
+        <v>14919.8</v>
+      </c>
+      <c r="J13">
+        <v>8343.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
+        <v>8161.7</v>
+      </c>
+      <c r="D14">
+        <v>7370.7</v>
+      </c>
+      <c r="E14">
+        <v>-7890.8</v>
+      </c>
+      <c r="F14">
+        <v>-4367.6</v>
+      </c>
+      <c r="G14">
+        <v>-93.2</v>
+      </c>
+      <c r="H14">
+        <v>-4980.9</v>
+      </c>
+      <c r="I14">
+        <v>8343.1</v>
+      </c>
+      <c r="J14">
+        <v>3362.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>7722.8</v>
+      </c>
+      <c r="D15">
+        <v>6470.9</v>
+      </c>
+      <c r="E15">
+        <v>5002.3</v>
+      </c>
+      <c r="F15">
+        <v>-12918.4</v>
+      </c>
+      <c r="G15">
+        <v>5.2</v>
+      </c>
+      <c r="H15">
+        <v>-1440</v>
+      </c>
+      <c r="I15">
+        <v>3362.2</v>
+      </c>
+      <c r="J15">
+        <v>1922.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <v>7614</v>
+      </c>
+      <c r="D16">
+        <v>10210.1</v>
+      </c>
+      <c r="E16">
+        <v>-370.6</v>
+      </c>
+      <c r="F16">
+        <v>-1395.1</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>8467.700000000001</v>
+      </c>
+      <c r="I16">
+        <v>1922.2</v>
+      </c>
+      <c r="J16">
+        <v>10389.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
+        <v>8680.700000000001</v>
+      </c>
+      <c r="D17">
+        <v>9068.1</v>
+      </c>
+      <c r="E17">
+        <v>3202.7</v>
+      </c>
+      <c r="F17">
+        <v>-12233</v>
+      </c>
+      <c r="G17">
+        <v>16.3</v>
+      </c>
+      <c r="H17">
+        <v>54.1</v>
+      </c>
+      <c r="I17">
+        <v>10389.9</v>
+      </c>
+      <c r="J17">
+        <v>10444</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
+        <v>10060.9</v>
+      </c>
+      <c r="D18">
+        <v>12727.7</v>
+      </c>
+      <c r="E18">
+        <v>-1275</v>
+      </c>
+      <c r="F18">
+        <v>-12105.7</v>
+      </c>
+      <c r="G18">
+        <v>-7.8</v>
+      </c>
+      <c r="H18">
+        <v>-660.8</v>
+      </c>
+      <c r="I18">
+        <v>10444</v>
+      </c>
+      <c r="J18">
+        <v>9783.200000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19">
+        <v>12135.3</v>
+      </c>
+      <c r="D19">
+        <v>7240.5</v>
+      </c>
+      <c r="E19">
+        <v>-12611.1</v>
+      </c>
+      <c r="F19">
+        <v>494.7</v>
+      </c>
+      <c r="G19">
+        <v>-9.199999999999999</v>
+      </c>
+      <c r="H19">
+        <v>-4885.1</v>
+      </c>
+      <c r="I19">
+        <v>9783.200000000001</v>
+      </c>
+      <c r="J19">
+        <v>4898.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
+        <v>9176.700000000001</v>
+      </c>
+      <c r="D20">
+        <v>11191.6</v>
+      </c>
+      <c r="E20">
+        <v>-4761.6</v>
+      </c>
+      <c r="F20">
+        <v>-6803.6</v>
+      </c>
+      <c r="G20">
+        <v>2.5</v>
+      </c>
+      <c r="H20">
+        <v>-371.1</v>
+      </c>
+      <c r="I20">
+        <v>4898.1</v>
+      </c>
+      <c r="J20">
+        <v>4527</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>1757.02</v>
-      </c>
-      <c r="C2">
-        <v>1666.42</v>
-      </c>
-      <c r="D2">
-        <v>-874.58</v>
-      </c>
-      <c r="E2">
-        <v>-550.61</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>246.8</v>
-      </c>
-      <c r="H2">
-        <v>290.09</v>
-      </c>
-      <c r="I2">
-        <v>536.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>2340.43</v>
-      </c>
-      <c r="C3">
-        <v>1912.25</v>
-      </c>
-      <c r="D3">
-        <v>-1694.42</v>
-      </c>
-      <c r="E3">
-        <v>59.8</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>277.63</v>
-      </c>
-      <c r="H3">
-        <v>545.38</v>
-      </c>
-      <c r="I3">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>3176.2</v>
-      </c>
-      <c r="C4">
-        <v>2674.6</v>
-      </c>
-      <c r="D4">
-        <v>-1881.9</v>
-      </c>
-      <c r="E4">
-        <v>238.5</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>1031.2</v>
-      </c>
-      <c r="H4">
-        <v>818</v>
-      </c>
-      <c r="I4">
-        <v>1849.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>3469.7</v>
-      </c>
-      <c r="C5">
-        <v>715.9</v>
-      </c>
-      <c r="D5">
-        <v>-1127.5</v>
-      </c>
-      <c r="E5">
-        <v>2290.9</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>1879.3</v>
-      </c>
-      <c r="H5">
-        <v>1852.8</v>
-      </c>
-      <c r="I5">
-        <v>3732.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>3547.9</v>
-      </c>
-      <c r="C6">
-        <v>4344.5</v>
-      </c>
-      <c r="D6">
-        <v>-3662.7</v>
-      </c>
-      <c r="E6">
-        <v>-70.7</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>611.1</v>
-      </c>
-      <c r="H6">
-        <v>3798.1</v>
-      </c>
-      <c r="I6">
-        <v>4409.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>5688.8</v>
-      </c>
-      <c r="C7">
-        <v>4477.4</v>
-      </c>
-      <c r="D7">
-        <v>-3064.6</v>
-      </c>
-      <c r="E7">
-        <v>-96.2</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>1316.6</v>
-      </c>
-      <c r="H7">
-        <v>4347.7</v>
-      </c>
-      <c r="I7">
-        <v>5664.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>5705.5</v>
-      </c>
-      <c r="C8">
-        <v>3711.2</v>
-      </c>
-      <c r="D8">
-        <v>-1474</v>
-      </c>
-      <c r="E8">
-        <v>-2733.3</v>
-      </c>
-      <c r="F8">
-        <v>32.3</v>
-      </c>
-      <c r="G8">
-        <v>-461</v>
-      </c>
-      <c r="H8">
-        <v>5664.3</v>
-      </c>
-      <c r="I8">
-        <v>5203.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>5918.6</v>
-      </c>
-      <c r="C9">
-        <v>2997.9</v>
-      </c>
-      <c r="D9">
-        <v>-339.8</v>
-      </c>
-      <c r="E9">
-        <v>-1723.8</v>
-      </c>
-      <c r="F9">
-        <v>95.2</v>
-      </c>
-      <c r="G9">
-        <v>1029.5</v>
-      </c>
-      <c r="H9">
-        <v>5203.3</v>
-      </c>
-      <c r="I9">
-        <v>6232.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>7205.1</v>
-      </c>
-      <c r="C10">
-        <v>6119.2</v>
-      </c>
-      <c r="D10">
-        <v>-3573.1</v>
-      </c>
-      <c r="E10">
-        <v>-1005.5</v>
-      </c>
-      <c r="F10">
-        <v>27.1</v>
-      </c>
-      <c r="G10">
-        <v>1567.7</v>
-      </c>
-      <c r="H10">
-        <v>6232.7</v>
-      </c>
-      <c r="I10">
-        <v>7800.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>9608.200000000001</v>
-      </c>
-      <c r="C11">
-        <v>6588.6</v>
-      </c>
-      <c r="D11">
-        <v>239.6</v>
-      </c>
-      <c r="E11">
-        <v>-4088.6</v>
-      </c>
-      <c r="F11">
-        <v>-49.3</v>
-      </c>
-      <c r="G11">
-        <v>2754.5</v>
-      </c>
-      <c r="H11">
-        <v>7800.4</v>
-      </c>
-      <c r="I11">
-        <v>10554.9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
-        <v>10557</v>
-      </c>
-      <c r="C12">
-        <v>7703.6</v>
-      </c>
-      <c r="D12">
-        <v>-1495</v>
-      </c>
-      <c r="E12">
-        <v>-1836.1</v>
-      </c>
-      <c r="F12">
-        <v>15.1</v>
-      </c>
-      <c r="G12">
-        <v>4387.6</v>
-      </c>
-      <c r="H12">
-        <v>10554.9</v>
-      </c>
-      <c r="I12">
-        <v>14942.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <v>8200.5</v>
-      </c>
-      <c r="C13">
-        <v>6686.7</v>
-      </c>
-      <c r="D13">
-        <v>-9805</v>
-      </c>
-      <c r="E13">
-        <v>-3489.7</v>
-      </c>
-      <c r="F13">
-        <v>31.3</v>
-      </c>
-      <c r="G13">
-        <v>-6576.7</v>
-      </c>
-      <c r="H13">
-        <v>14919.8</v>
-      </c>
-      <c r="I13">
-        <v>8343.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>8161.7</v>
-      </c>
-      <c r="C14">
-        <v>7370.7</v>
-      </c>
-      <c r="D14">
-        <v>-7890.8</v>
-      </c>
-      <c r="E14">
-        <v>-4367.6</v>
-      </c>
-      <c r="F14">
-        <v>-93.2</v>
-      </c>
-      <c r="G14">
-        <v>-4980.9</v>
-      </c>
-      <c r="H14">
-        <v>8343.1</v>
-      </c>
-      <c r="I14">
-        <v>3362.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
-        <v>7722.8</v>
-      </c>
-      <c r="C15">
-        <v>6470.9</v>
-      </c>
-      <c r="D15">
-        <v>5002.3</v>
-      </c>
-      <c r="E15">
-        <v>-12918.4</v>
-      </c>
-      <c r="F15">
-        <v>5.2</v>
-      </c>
-      <c r="G15">
-        <v>-1440</v>
-      </c>
-      <c r="H15">
-        <v>3362.2</v>
-      </c>
-      <c r="I15">
-        <v>1922.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
-        <v>7614</v>
-      </c>
-      <c r="C16">
-        <v>10210.1</v>
-      </c>
-      <c r="D16">
-        <v>-370.6</v>
-      </c>
-      <c r="E16">
-        <v>-1395.1</v>
-      </c>
-      <c r="F16">
-        <v>3</v>
-      </c>
-      <c r="G16">
-        <v>8467.700000000001</v>
-      </c>
-      <c r="H16">
-        <v>1922.2</v>
-      </c>
-      <c r="I16">
-        <v>10389.9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
-        <v>8680.700000000001</v>
-      </c>
-      <c r="C17">
-        <v>9068.1</v>
-      </c>
-      <c r="D17">
-        <v>3202.7</v>
-      </c>
-      <c r="E17">
-        <v>-12233</v>
-      </c>
-      <c r="F17">
-        <v>16.3</v>
-      </c>
-      <c r="G17">
-        <v>54.1</v>
-      </c>
-      <c r="H17">
-        <v>10389.9</v>
-      </c>
-      <c r="I17">
-        <v>10444</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
-        <v>10060.9</v>
-      </c>
-      <c r="C18">
-        <v>12727.7</v>
-      </c>
-      <c r="D18">
-        <v>-1275</v>
-      </c>
-      <c r="E18">
-        <v>-12105.7</v>
-      </c>
-      <c r="F18">
-        <v>-7.8</v>
-      </c>
-      <c r="G18">
-        <v>-660.8</v>
-      </c>
-      <c r="H18">
-        <v>10444</v>
-      </c>
-      <c r="I18">
-        <v>9783.200000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
-        <v>12135.3</v>
-      </c>
-      <c r="C19">
-        <v>7240.5</v>
-      </c>
-      <c r="D19">
-        <v>-12611.1</v>
-      </c>
-      <c r="E19">
-        <v>494.7</v>
-      </c>
-      <c r="F19">
-        <v>-9.199999999999999</v>
-      </c>
-      <c r="G19">
-        <v>-4885.1</v>
-      </c>
-      <c r="H19">
-        <v>9783.200000000001</v>
-      </c>
-      <c r="I19">
-        <v>4898.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
-        <v>9176.700000000001</v>
-      </c>
-      <c r="C20">
-        <v>11191.6</v>
-      </c>
-      <c r="D20">
-        <v>-4761.6</v>
-      </c>
-      <c r="E20">
-        <v>-6803.6</v>
-      </c>
-      <c r="F20">
-        <v>2.5</v>
-      </c>
-      <c r="G20">
-        <v>-371.1</v>
-      </c>
-      <c r="H20">
-        <v>4898.1</v>
-      </c>
-      <c r="I20">
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
+        <v>9118.6</v>
+      </c>
+      <c r="D21">
+        <v>14215.9</v>
+      </c>
+      <c r="E21">
+        <v>2237</v>
+      </c>
+      <c r="F21">
+        <v>-17158.7</v>
+      </c>
+      <c r="G21">
+        <v>-30.6</v>
+      </c>
+      <c r="H21">
+        <v>-736.4</v>
+      </c>
+      <c r="I21">
         <v>4527</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
-        <v>9118.6</v>
-      </c>
-      <c r="C21">
-        <v>14215.9</v>
-      </c>
-      <c r="D21">
-        <v>2237</v>
-      </c>
-      <c r="E21">
-        <v>-17158.7</v>
-      </c>
-      <c r="F21">
-        <v>-30.6</v>
-      </c>
-      <c r="G21">
-        <v>-736.4</v>
-      </c>
-      <c r="H21">
-        <v>4527</v>
-      </c>
-      <c r="I21">
+      <c r="J21">
         <v>3790.6</v>
       </c>
     </row>
@@ -2240,270 +2330,279 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
+        <v>64</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
         <v>7276.18</v>
-      </c>
-      <c r="C2">
-        <v>7233.16</v>
       </c>
       <c r="D2">
         <v>7233.16</v>
       </c>
       <c r="E2">
+        <v>7233.16</v>
+      </c>
+      <c r="F2">
         <v>93.31</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>7326.47</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>511.53</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>2878.53</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>5.57</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>185.97</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>755.84</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>5569.45</v>
-      </c>
-      <c r="M2">
-        <v>1757.02</v>
       </c>
       <c r="N2">
         <v>1757.02</v>
       </c>
       <c r="O2">
+        <v>1757.02</v>
+      </c>
+      <c r="P2">
         <v>254.61</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>-0.3</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>255.15</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>1501.88</v>
-      </c>
-      <c r="S2">
-        <v>1494.82</v>
       </c>
       <c r="T2">
         <v>1494.82</v>
       </c>
       <c r="U2">
-        <v>21.25</v>
+        <v>1494.82</v>
       </c>
       <c r="V2">
         <v>21.25</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2">
+        <v>21.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
         <v>10264.09</v>
-      </c>
-      <c r="C3">
-        <v>10227.12</v>
       </c>
       <c r="D3">
         <v>10227.12</v>
       </c>
       <c r="E3">
+        <v>10227.12</v>
+      </c>
+      <c r="F3">
         <v>151.92</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>10379.04</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>934.24</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>4279.03</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>3.13</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>292.26</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>1075.83</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>8038.61</v>
-      </c>
-      <c r="M3">
-        <v>2340.43</v>
       </c>
       <c r="N3">
         <v>2340.43</v>
       </c>
       <c r="O3">
+        <v>2340.43</v>
+      </c>
+      <c r="P3">
         <v>268.87</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>-6.28</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>286.1</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>2054.33</v>
-      </c>
-      <c r="S3">
-        <v>2020.48</v>
       </c>
       <c r="T3">
         <v>2020.48</v>
       </c>
       <c r="U3">
-        <v>14.17</v>
+        <v>2020.48</v>
       </c>
       <c r="V3">
         <v>14.17</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3">
+        <v>14.17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
         <v>13758.5</v>
-      </c>
-      <c r="C4">
-        <v>13683.9</v>
       </c>
       <c r="D4">
         <v>13683.9</v>
       </c>
       <c r="E4">
+        <v>13683.9</v>
+      </c>
+      <c r="F4">
         <v>288.7</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>13972.6</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>120.5</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>5768.2</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>7.2</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>359.8</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>2651.7</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>10796.4</v>
-      </c>
-      <c r="M4">
-        <v>3176.2</v>
       </c>
       <c r="N4">
         <v>3176.2</v>
       </c>
       <c r="O4">
+        <v>3176.2</v>
+      </c>
+      <c r="P4">
         <v>334.1</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>0</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>334.1</v>
-      </c>
-      <c r="R4">
-        <v>2842.1</v>
       </c>
       <c r="S4">
         <v>2842.1</v>
@@ -2512,66 +2611,69 @@
         <v>2842.1</v>
       </c>
       <c r="U4">
-        <v>19.48</v>
+        <v>2842.1</v>
       </c>
       <c r="V4">
         <v>19.48</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4">
+        <v>19.48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
         <v>17658.1</v>
-      </c>
-      <c r="C5">
-        <v>17492.6</v>
       </c>
       <c r="D5">
         <v>17492.6</v>
       </c>
       <c r="E5">
+        <v>17492.6</v>
+      </c>
+      <c r="F5">
         <v>326.9</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>17819.5</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>299.8</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>7409.1</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>116.8</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>456</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>3115.8</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>14349.8</v>
-      </c>
-      <c r="M5">
-        <v>3469.7</v>
       </c>
       <c r="N5">
         <v>3469.7</v>
       </c>
       <c r="O5">
+        <v>3469.7</v>
+      </c>
+      <c r="P5">
         <v>406.4</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>0</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>406.4</v>
-      </c>
-      <c r="R5">
-        <v>3063.3</v>
       </c>
       <c r="S5">
         <v>3063.3</v>
@@ -2580,66 +2682,69 @@
         <v>3063.3</v>
       </c>
       <c r="U5">
-        <v>20.96</v>
+        <v>3063.3</v>
       </c>
       <c r="V5">
         <v>20.96</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5">
+        <v>20.96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
         <v>21612.8</v>
-      </c>
-      <c r="C6">
-        <v>21507.3</v>
       </c>
       <c r="D6">
         <v>21507.3</v>
       </c>
       <c r="E6">
+        <v>21507.3</v>
+      </c>
+      <c r="F6">
         <v>-480.4</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>21026.9</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>1687.8</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>9249.799999999999</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>196.8</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>533.6</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>2214.4</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>17479</v>
-      </c>
-      <c r="M6">
-        <v>3547.9</v>
       </c>
       <c r="N6">
         <v>3547.9</v>
       </c>
       <c r="O6">
+        <v>3547.9</v>
+      </c>
+      <c r="P6">
         <v>539.5</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>-6</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>574.1</v>
-      </c>
-      <c r="R6">
-        <v>2973.8</v>
       </c>
       <c r="S6">
         <v>2973.8</v>
@@ -2648,66 +2753,69 @@
         <v>2973.8</v>
       </c>
       <c r="U6">
-        <v>20.3</v>
+        <v>2973.8</v>
       </c>
       <c r="V6">
         <v>20.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
         <v>23006.3</v>
-      </c>
-      <c r="C7">
-        <v>22922</v>
       </c>
       <c r="D7">
         <v>22922</v>
       </c>
       <c r="E7">
+        <v>22922</v>
+      </c>
+      <c r="F7">
         <v>866.7</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>23788.7</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>2145.3</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>9062.799999999999</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>99.8</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>579.6</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>2413.2</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>18099.9</v>
-      </c>
-      <c r="M7">
-        <v>5688.8</v>
       </c>
       <c r="N7">
         <v>5688.8</v>
       </c>
       <c r="O7">
+        <v>5688.8</v>
+      </c>
+      <c r="P7">
         <v>790.8</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>0</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>790.8</v>
-      </c>
-      <c r="R7">
-        <v>4898</v>
       </c>
       <c r="S7">
         <v>4898</v>
@@ -2716,66 +2824,69 @@
         <v>4898</v>
       </c>
       <c r="U7">
-        <v>33.37</v>
+        <v>4898</v>
       </c>
       <c r="V7">
         <v>33.37</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7">
+        <v>33.37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
         <v>26401.2</v>
-      </c>
-      <c r="C8">
-        <v>26300.5</v>
       </c>
       <c r="D8">
         <v>26300.5</v>
       </c>
       <c r="E8">
+        <v>26300.5</v>
+      </c>
+      <c r="F8">
         <v>680.7</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>26981.2</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>0</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>10937.4</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>136</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>600.1</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>5850.9</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>21275.7</v>
-      </c>
-      <c r="M8">
-        <v>5705.5</v>
       </c>
       <c r="N8">
         <v>5705.5</v>
       </c>
       <c r="O8">
+        <v>5705.5</v>
+      </c>
+      <c r="P8">
         <v>778.8</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>24</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>861.8</v>
-      </c>
-      <c r="R8">
-        <v>4843.7</v>
       </c>
       <c r="S8">
         <v>4843.7</v>
@@ -2784,66 +2895,69 @@
         <v>4843.7</v>
       </c>
       <c r="U8">
+        <v>4843.7</v>
+      </c>
+      <c r="V8">
         <v>19.88</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>19.78</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
         <v>31803.4</v>
-      </c>
-      <c r="C9">
-        <v>31682.9</v>
       </c>
       <c r="D9">
         <v>31682.9</v>
       </c>
       <c r="E9">
+        <v>31682.9</v>
+      </c>
+      <c r="F9">
         <v>1227.4</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>32910.3</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>13311.5</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>605.7</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>746.1</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>7627.4</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>26991.7</v>
-      </c>
-      <c r="M9">
-        <v>5918.6</v>
       </c>
       <c r="N9">
         <v>5918.6</v>
       </c>
       <c r="O9">
+        <v>5918.6</v>
+      </c>
+      <c r="P9">
         <v>1281</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>-16</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>1233.5</v>
-      </c>
-      <c r="R9">
-        <v>4685.1</v>
       </c>
       <c r="S9">
         <v>4685.1</v>
@@ -2852,66 +2966,69 @@
         <v>4685.1</v>
       </c>
       <c r="U9">
+        <v>4685.1</v>
+      </c>
+      <c r="V9">
         <v>19.13</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>19.09</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
         <v>33229.6</v>
-      </c>
-      <c r="C10">
-        <v>33226.5</v>
       </c>
       <c r="D10">
         <v>33226.5</v>
       </c>
       <c r="E10">
+        <v>33226.5</v>
+      </c>
+      <c r="F10">
         <v>1325.3</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>34551.8</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>15904.2</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>352.4</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>701.3</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>7705.6</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>27346.7</v>
-      </c>
-      <c r="M10">
-        <v>7205.1</v>
       </c>
       <c r="N10">
         <v>7205.1</v>
       </c>
       <c r="O10">
+        <v>7205.1</v>
+      </c>
+      <c r="P10">
         <v>1530</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>10</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>1554.9</v>
-      </c>
-      <c r="R10">
-        <v>5650.2</v>
       </c>
       <c r="S10">
         <v>5650.2</v>
@@ -2920,66 +3037,69 @@
         <v>5650.2</v>
       </c>
       <c r="U10">
+        <v>5650.2</v>
+      </c>
+      <c r="V10">
         <v>23.03</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>22.99</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
         <v>38765.1</v>
-      </c>
-      <c r="C11">
-        <v>38757.2</v>
       </c>
       <c r="D11">
         <v>38757.2</v>
       </c>
       <c r="E11">
+        <v>38757.2</v>
+      </c>
+      <c r="F11">
         <v>1611.2</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>40368.4</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>18337.5</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>374.7</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>736.7</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>8819.299999999999</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>30760.2</v>
-      </c>
-      <c r="M11">
-        <v>9608.200000000001</v>
       </c>
       <c r="N11">
         <v>9608.200000000001</v>
       </c>
       <c r="O11">
+        <v>9608.200000000001</v>
+      </c>
+      <c r="P11">
         <v>2056.3</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>52.4</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>2220.8</v>
-      </c>
-      <c r="R11">
-        <v>7387.4</v>
       </c>
       <c r="S11">
         <v>7387.4</v>
@@ -2988,66 +3108,69 @@
         <v>7387.4</v>
       </c>
       <c r="U11">
+        <v>7387.4</v>
+      </c>
+      <c r="V11">
         <v>30.09</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>30.01</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
         <v>41210</v>
-      </c>
-      <c r="C12">
-        <v>41209.8</v>
       </c>
       <c r="D12">
         <v>41209.8</v>
       </c>
       <c r="E12">
+        <v>41209.8</v>
+      </c>
+      <c r="F12">
         <v>2499</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>43708.8</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>19726.3</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>362.9</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>778.4</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>10078.7</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>33151.8</v>
-      </c>
-      <c r="M12">
-        <v>10557</v>
       </c>
       <c r="N12">
         <v>10557</v>
       </c>
       <c r="O12">
+        <v>10557</v>
+      </c>
+      <c r="P12">
         <v>2376.6</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>-12.7</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>2363.9</v>
-      </c>
-      <c r="R12">
-        <v>8193.1</v>
       </c>
       <c r="S12">
         <v>8193.1</v>
@@ -3056,18 +3179,21 @@
         <v>8193.1</v>
       </c>
       <c r="U12">
-        <v>33</v>
+        <v>8193.1</v>
       </c>
       <c r="V12">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <v>44680.8</v>
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
       </c>
       <c r="C13">
         <v>44680.8</v>
@@ -3076,46 +3202,46 @@
         <v>44680.8</v>
       </c>
       <c r="E13">
+        <v>44680.8</v>
+      </c>
+      <c r="F13">
         <v>2710.6</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>47391.4</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>0</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>21267.1</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>549.9</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>875.4</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>11501.7</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>36797.2</v>
-      </c>
-      <c r="M13">
-        <v>10594.2</v>
       </c>
       <c r="N13">
         <v>10594.2</v>
       </c>
       <c r="O13">
+        <v>10594.2</v>
+      </c>
+      <c r="P13">
         <v>2452.3</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>-58.6</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>2393.7</v>
-      </c>
-      <c r="R13">
-        <v>8200.5</v>
       </c>
       <c r="S13">
         <v>8200.5</v>
@@ -3124,66 +3250,69 @@
         <v>8200.5</v>
       </c>
       <c r="U13">
+        <v>8200.5</v>
+      </c>
+      <c r="V13">
         <v>33.38</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>33.31</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>45639.6</v>
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
       </c>
       <c r="C14">
         <v>45639.6</v>
       </c>
       <c r="D14">
+        <v>45639.6</v>
+      </c>
+      <c r="E14">
         <v>46047.8</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>2645.9</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>48693.7</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>0</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>21854.4</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>468</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>1047.7</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>12285.6</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>38006.6</v>
-      </c>
-      <c r="M14">
-        <v>10687.1</v>
       </c>
       <c r="N14">
         <v>10687.1</v>
       </c>
       <c r="O14">
+        <v>10687.1</v>
+      </c>
+      <c r="P14">
         <v>2430.4</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>95</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>2525.4</v>
-      </c>
-      <c r="R14">
-        <v>8161.7</v>
       </c>
       <c r="S14">
         <v>8161.7</v>
@@ -3192,18 +3321,21 @@
         <v>8161.7</v>
       </c>
       <c r="U14">
+        <v>8161.7</v>
+      </c>
+      <c r="V14">
         <v>16.8</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>16.75</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
-        <v>44710</v>
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
       </c>
       <c r="C15">
         <v>44710</v>
@@ -3212,46 +3344,46 @@
         <v>44710</v>
       </c>
       <c r="E15">
+        <v>44710</v>
+      </c>
+      <c r="F15">
         <v>2479.6</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>47189.6</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>0</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>21756.2</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>384.3</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>1014.8</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>12472.7</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>37155.3</v>
-      </c>
-      <c r="M15">
-        <v>10034.3</v>
       </c>
       <c r="N15">
         <v>10034.3</v>
       </c>
       <c r="O15">
+        <v>10034.3</v>
+      </c>
+      <c r="P15">
         <v>2434.5</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>-123</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>2311.5</v>
-      </c>
-      <c r="R15">
-        <v>7722.8</v>
       </c>
       <c r="S15">
         <v>7722.8</v>
@@ -3260,66 +3392,69 @@
         <v>7722.8</v>
       </c>
       <c r="U15">
+        <v>7722.8</v>
+      </c>
+      <c r="V15">
         <v>16.26</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>16.23</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
-        <v>48029.8</v>
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
       </c>
       <c r="C16">
         <v>48029.8</v>
       </c>
       <c r="D16">
+        <v>48029.8</v>
+      </c>
+      <c r="E16">
         <v>48123.8</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>2568.6</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>50692.4</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>12505.1</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>23808.5</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>524.9</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>934.3</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>1962.4</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>40821.9</v>
-      </c>
-      <c r="M16">
-        <v>9870.5</v>
       </c>
       <c r="N16">
         <v>9870.5</v>
       </c>
       <c r="O16">
+        <v>9870.5</v>
+      </c>
+      <c r="P16">
         <v>2272.5</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>-16</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>2256.5</v>
-      </c>
-      <c r="R16">
-        <v>7614</v>
       </c>
       <c r="S16">
         <v>7614</v>
@@ -3328,66 +3463,69 @@
         <v>7614</v>
       </c>
       <c r="U16">
-        <v>12.67</v>
+        <v>7614</v>
       </c>
       <c r="V16">
         <v>12.67</v>
       </c>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="W16">
+        <v>12.67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
-        <v>50387.7</v>
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
       </c>
       <c r="C17">
         <v>50387.7</v>
       </c>
       <c r="D17">
+        <v>50387.7</v>
+      </c>
+      <c r="E17">
         <v>50407</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>2476.6</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>52883.6</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>12378.4</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>26171.8</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>535.2</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>1141.1</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>691.2</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>41875.9</v>
-      </c>
-      <c r="M17">
-        <v>11007.7</v>
       </c>
       <c r="N17">
         <v>11007.7</v>
       </c>
       <c r="O17">
+        <v>11007.7</v>
+      </c>
+      <c r="P17">
         <v>2206.7</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>120.3</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>2327</v>
-      </c>
-      <c r="R17">
-        <v>8680.700000000001</v>
       </c>
       <c r="S17">
         <v>8680.700000000001</v>
@@ -3396,18 +3534,21 @@
         <v>8680.700000000001</v>
       </c>
       <c r="U17">
+        <v>8680.700000000001</v>
+      </c>
+      <c r="V17">
         <v>14.88</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>14.84</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
-        <v>50299.4</v>
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
       </c>
       <c r="C18">
         <v>50299.4</v>
@@ -3416,46 +3557,46 @@
         <v>50299.4</v>
       </c>
       <c r="E18">
+        <v>50299.4</v>
+      </c>
+      <c r="F18">
         <v>2382.9</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>52682.3</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>10675.4</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>26467.3</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>402.6</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>1349.3</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>480.5</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>39997.5</v>
-      </c>
-      <c r="M18">
-        <v>12684.8</v>
       </c>
       <c r="N18">
         <v>12684.8</v>
       </c>
       <c r="O18">
+        <v>12684.8</v>
+      </c>
+      <c r="P18">
         <v>2243</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>380.9</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>2623.9</v>
-      </c>
-      <c r="R18">
-        <v>10060.9</v>
       </c>
       <c r="S18">
         <v>10060.9</v>
@@ -3464,18 +3605,21 @@
         <v>10060.9</v>
       </c>
       <c r="U18">
+        <v>10060.9</v>
+      </c>
+      <c r="V18">
         <v>17.81</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>17.77</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
-        <v>59574.4</v>
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
       </c>
       <c r="C19">
         <v>59574.4</v>
@@ -3484,46 +3628,46 @@
         <v>59574.4</v>
       </c>
       <c r="E19">
+        <v>59574.4</v>
+      </c>
+      <c r="F19">
         <v>4706.1</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>64280.5</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>14109.6</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>31542.4</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>367.4</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>1485.7</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>1028.8</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>49016.3</v>
-      </c>
-      <c r="M19">
-        <v>15264.2</v>
       </c>
       <c r="N19">
         <v>15264.2</v>
       </c>
       <c r="O19">
+        <v>15264.2</v>
+      </c>
+      <c r="P19">
         <v>3194.1</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>-65.2</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>3128.9</v>
-      </c>
-      <c r="R19">
-        <v>12135.3</v>
       </c>
       <c r="S19">
         <v>12135.3</v>
@@ -3532,18 +3676,21 @@
         <v>12135.3</v>
       </c>
       <c r="U19">
+        <v>12135.3</v>
+      </c>
+      <c r="V19">
         <v>22.2</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>22.14</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
-        <v>67753.39999999999</v>
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
       </c>
       <c r="C20">
         <v>67753.39999999999</v>
@@ -3552,46 +3699,46 @@
         <v>67753.39999999999</v>
       </c>
       <c r="E20">
+        <v>67753.39999999999</v>
+      </c>
+      <c r="F20">
         <v>2354.2</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>70107.60000000001</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>13918.9</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>37201.6</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>628.9</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>1592.1</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>4122.5</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>57838.7</v>
-      </c>
-      <c r="M20">
-        <v>12268.9</v>
       </c>
       <c r="N20">
         <v>12268.9</v>
       </c>
       <c r="O20">
+        <v>12268.9</v>
+      </c>
+      <c r="P20">
         <v>2740.5</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>351.7</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>3092.2</v>
-      </c>
-      <c r="R20">
-        <v>9176.700000000001</v>
       </c>
       <c r="S20">
         <v>9176.700000000001</v>
@@ -3600,18 +3747,21 @@
         <v>9176.700000000001</v>
       </c>
       <c r="U20">
-        <v>16.75</v>
+        <v>9176.700000000001</v>
       </c>
       <c r="V20">
         <v>16.75</v>
       </c>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="W20">
+        <v>16.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
-        <v>66792.39999999999</v>
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
       </c>
       <c r="C21">
         <v>66792.39999999999</v>
@@ -3620,46 +3770,46 @@
         <v>66792.39999999999</v>
       </c>
       <c r="E21">
+        <v>66792.39999999999</v>
+      </c>
+      <c r="F21">
         <v>3045.8</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>69838.2</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>13148.5</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>38289.5</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>819.7</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>1491.8</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>3389.1</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>57420.7</v>
-      </c>
-      <c r="M21">
-        <v>12417.5</v>
       </c>
       <c r="N21">
         <v>12417.5</v>
       </c>
       <c r="O21">
+        <v>12417.5</v>
+      </c>
+      <c r="P21">
         <v>3148.5</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>150.4</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>3298.9</v>
-      </c>
-      <c r="R21">
-        <v>9118.6</v>
       </c>
       <c r="S21">
         <v>9118.6</v>
@@ -3668,9 +3818,12 @@
         <v>9118.6</v>
       </c>
       <c r="U21">
+        <v>9118.6</v>
+      </c>
+      <c r="V21">
         <v>17.24</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>17.19</v>
       </c>
     </row>
@@ -3689,84 +3842,84 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>9989.9</v>
@@ -3831,13 +3984,13 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>10338.3</v>
@@ -3902,13 +4055,13 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D4">
         <v>9963.4</v>
@@ -3973,13 +4126,13 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D5">
         <v>10228.3</v>
@@ -4044,13 +4197,13 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
         <v>86</v>
       </c>
-      <c r="B6" t="s">
-        <v>97</v>
-      </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>10400.6</v>
@@ -4115,13 +4268,13 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D7">
         <v>10617.5</v>
@@ -4186,13 +4339,13 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
         <v>87</v>
       </c>
-      <c r="B8" t="s">
-        <v>99</v>
-      </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D8">
         <v>10775.4</v>
@@ -4257,13 +4410,13 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D9">
         <v>11036.9</v>
@@ -4328,13 +4481,13 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D10">
         <v>11206.9</v>
@@ -4399,13 +4552,13 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D11">
         <v>11661.5</v>
@@ -4470,13 +4623,13 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D12">
         <v>11587.5</v>
@@ -4541,13 +4694,13 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
         <v>88</v>
       </c>
-      <c r="B13" t="s">
-        <v>100</v>
-      </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D13">
         <v>11453.8</v>
@@ -4612,13 +4765,13 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D14">
         <v>11378.3</v>
@@ -4683,13 +4836,13 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D15">
         <v>11220</v>
@@ -4754,13 +4907,13 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D16">
         <v>11152.8</v>
@@ -4825,13 +4978,13 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D17">
         <v>11050.5</v>
@@ -4896,13 +5049,13 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" t="s">
         <v>89</v>
-      </c>
-      <c r="B18" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" t="s">
-        <v>101</v>
       </c>
       <c r="D18">
         <v>11072.7</v>
@@ -4967,13 +5120,13 @@
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
         <v>90</v>
-      </c>
-      <c r="B19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C19" t="s">
-        <v>102</v>
       </c>
       <c r="D19">
         <v>11434</v>
@@ -5038,13 +5191,13 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D20">
         <v>11567.5</v>
@@ -5109,13 +5262,13 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D21">
         <v>12002.3</v>
@@ -5180,13 +5333,13 @@
     </row>
     <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D22">
         <v>12138.7</v>
@@ -5251,13 +5404,13 @@
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D23">
         <v>12321.3</v>
@@ -5322,13 +5475,13 @@
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" t="s">
         <v>91</v>
-      </c>
-      <c r="B24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" t="s">
-        <v>103</v>
       </c>
       <c r="D24">
         <v>12042</v>
@@ -5393,13 +5546,13 @@
     </row>
     <row r="25" spans="1:23">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D25">
         <v>12522.6</v>
@@ -5464,13 +5617,13 @@
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D26">
         <v>12695.9</v>
@@ -5535,13 +5688,13 @@
     </row>
     <row r="27" spans="1:23">
       <c r="A27" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D27">
         <v>13127.2</v>
@@ -5606,13 +5759,13 @@
     </row>
     <row r="28" spans="1:23">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D28">
         <v>12192.9</v>
@@ -5677,13 +5830,13 @@
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" t="s">
         <v>92</v>
-      </c>
-      <c r="B29" t="s">
-        <v>100</v>
-      </c>
-      <c r="C29" t="s">
-        <v>104</v>
       </c>
       <c r="D29">
         <v>12250.4</v>
@@ -5748,13 +5901,13 @@
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D30">
         <v>12596.1</v>
@@ -5819,13 +5972,13 @@
     </row>
     <row r="31" spans="1:23">
       <c r="A31" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D31">
         <v>13260</v>
@@ -5890,13 +6043,13 @@
     </row>
     <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D32">
         <v>13990.1</v>
@@ -5961,13 +6114,13 @@
     </row>
     <row r="33" spans="1:23">
       <c r="A33" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D33">
         <v>14720</v>
@@ -6032,13 +6185,13 @@
     </row>
     <row r="34" spans="1:23">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D34">
         <v>15278.7</v>
@@ -6103,13 +6256,13 @@
     </row>
     <row r="35" spans="1:23">
       <c r="A35" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D35">
         <v>15585.6</v>
@@ -6174,13 +6327,13 @@
     </row>
     <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D36">
         <v>16255.6</v>
@@ -6245,13 +6398,13 @@
     </row>
     <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D37">
         <v>16941.8</v>
@@ -6316,13 +6469,13 @@
     </row>
     <row r="38" spans="1:23">
       <c r="A38" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C38" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D38">
         <v>17078.7</v>
@@ -6387,13 +6540,13 @@
     </row>
     <row r="39" spans="1:23">
       <c r="A39" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D39">
         <v>17477.3</v>
@@ -6458,13 +6611,13 @@
     </row>
     <row r="40" spans="1:23">
       <c r="A40" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D40">
         <v>17202.8</v>
@@ -6529,13 +6682,13 @@
     </row>
     <row r="41" spans="1:23">
       <c r="A41" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D41">
         <v>16680.7</v>
@@ -6600,13 +6753,13 @@
     </row>
     <row r="42" spans="1:23">
       <c r="A42" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B42" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D42">
         <v>16315.7</v>
@@ -6671,13 +6824,13 @@
     </row>
     <row r="43" spans="1:23">
       <c r="A43" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B43" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C43" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D43">
         <v>16593.2</v>
@@ -6742,13 +6895,13 @@
     </row>
     <row r="44" spans="1:23">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B44" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C44" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D44">
         <v>16481.3</v>
@@ -6813,13 +6966,13 @@
     </row>
     <row r="45" spans="1:23">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B45" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C45" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D45">
         <v>16895.8</v>
@@ -6884,13 +7037,13 @@
     </row>
     <row r="46" spans="1:23">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B46" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C46" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D46">
         <v>16803</v>
@@ -6960,1185 +7113,1248 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
         <v>102.81</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>27.7</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>25.05</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>24.97</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>21.25</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>26.93</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>24.36</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>24.29</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>20.66</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>30.55</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>22.34</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0.01</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>23.53</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>20.92</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>76.47</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>46741.78</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>23.99</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
         <v>71.73</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>18.49</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>16.44</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>16.42</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>14.17</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>25.77</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>22.91</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>22.88</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>19.75</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>31.46</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>21.8</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.01</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>35.28</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>30.82</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>64.72</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>78862.7</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>29.92</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
         <v>93.79000000000001</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>24.29</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>21.82</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>21.77</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>19.48</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>25.89</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>23.26</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>23.21</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>20.76</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>30.5</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>21.33</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>0.03</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>30.74</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>27.28</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>69.26000000000001</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>79852.07000000001</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>22.54</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
         <v>119.69</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>27.66</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>24.54</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>23.74</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>20.96</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>23.1</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>20.5</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>19.83</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>17.51</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>26.51</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>15.18</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>0.33</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>28.61</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>24.9</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>71.39</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>62247.9</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>15.4</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <v>146.81</v>
+      </c>
+      <c r="D6">
+        <v>29.2</v>
+      </c>
+      <c r="E6">
+        <v>25.56</v>
+      </c>
+      <c r="F6">
+        <v>24.22</v>
+      </c>
+      <c r="G6">
+        <v>20.3</v>
+      </c>
+      <c r="H6">
+        <v>19.89</v>
+      </c>
+      <c r="I6">
+        <v>17.41</v>
+      </c>
+      <c r="J6">
+        <v>16.49</v>
+      </c>
+      <c r="K6">
+        <v>13.82</v>
+      </c>
+      <c r="L6">
+        <v>23.76</v>
+      </c>
+      <c r="M6">
+        <v>11.94</v>
+      </c>
+      <c r="N6">
+        <v>0.4</v>
+      </c>
+      <c r="O6">
+        <v>19.7</v>
+      </c>
+      <c r="P6">
+        <v>16.7</v>
+      </c>
+      <c r="Q6">
+        <v>80.3</v>
+      </c>
+      <c r="R6">
+        <v>36555.8</v>
+      </c>
+      <c r="S6">
+        <v>8.539999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>156.14</v>
+      </c>
+      <c r="D7">
+        <v>43.38</v>
+      </c>
+      <c r="E7">
+        <v>39.43</v>
+      </c>
+      <c r="F7">
+        <v>38.75</v>
+      </c>
+      <c r="G7">
+        <v>33.37</v>
+      </c>
+      <c r="H7">
+        <v>27.78</v>
+      </c>
+      <c r="I7">
+        <v>25.25</v>
+      </c>
+      <c r="J7">
+        <v>24.81</v>
+      </c>
+      <c r="K7">
+        <v>21.36</v>
+      </c>
+      <c r="L7">
+        <v>27.68</v>
+      </c>
+      <c r="M7">
+        <v>16.15</v>
+      </c>
+      <c r="N7">
+        <v>0.31</v>
+      </c>
+      <c r="O7">
+        <v>17.98</v>
+      </c>
+      <c r="P7">
+        <v>16.08</v>
+      </c>
+      <c r="Q7">
+        <v>82.02</v>
+      </c>
+      <c r="R7">
+        <v>103624.14</v>
+      </c>
+      <c r="S7">
+        <v>16.27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
+        <v>107.17</v>
+      </c>
+      <c r="D8">
+        <v>26.25</v>
+      </c>
+      <c r="E8">
+        <v>23.8</v>
+      </c>
+      <c r="F8">
+        <v>23.25</v>
+      </c>
+      <c r="G8">
+        <v>19.74</v>
+      </c>
+      <c r="H8">
+        <v>24.49</v>
+      </c>
+      <c r="I8">
+        <v>22.21</v>
+      </c>
+      <c r="J8">
+        <v>21.69</v>
+      </c>
+      <c r="K8">
+        <v>18.41</v>
+      </c>
+      <c r="L8">
+        <v>22.71</v>
+      </c>
+      <c r="M8">
+        <v>14.19</v>
+      </c>
+      <c r="N8">
+        <v>0.22</v>
+      </c>
+      <c r="O8">
+        <v>30.4</v>
+      </c>
+      <c r="P8">
+        <v>27.05</v>
+      </c>
+      <c r="Q8">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="R8">
+        <v>116882.32</v>
+      </c>
+      <c r="S8">
+        <v>18.14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>128.87</v>
+      </c>
+      <c r="D9">
+        <v>29.57</v>
+      </c>
+      <c r="E9">
+        <v>26.54</v>
+      </c>
+      <c r="F9">
+        <v>24.07</v>
+      </c>
+      <c r="G9">
+        <v>19.06</v>
+      </c>
+      <c r="H9">
+        <v>22.94</v>
+      </c>
+      <c r="I9">
+        <v>20.59</v>
+      </c>
+      <c r="J9">
+        <v>18.68</v>
+      </c>
+      <c r="K9">
+        <v>14.78</v>
+      </c>
+      <c r="L9">
+        <v>19.23</v>
+      </c>
+      <c r="M9">
+        <v>12.13</v>
+      </c>
+      <c r="N9">
+        <v>0.22</v>
+      </c>
+      <c r="O9">
+        <v>31.48</v>
+      </c>
+      <c r="P9">
+        <v>27.16</v>
+      </c>
+      <c r="Q9">
+        <v>68.52</v>
+      </c>
+      <c r="R9">
+        <v>106938.55</v>
+      </c>
+      <c r="S9">
+        <v>14.71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
+        <v>134.9</v>
+      </c>
+      <c r="D10">
+        <v>33.53</v>
+      </c>
+      <c r="E10">
+        <v>30.68</v>
+      </c>
+      <c r="F10">
+        <v>29.25</v>
+      </c>
+      <c r="G10">
+        <v>22.94</v>
+      </c>
+      <c r="H10">
+        <v>24.85</v>
+      </c>
+      <c r="I10">
+        <v>22.74</v>
+      </c>
+      <c r="J10">
+        <v>21.68</v>
+      </c>
+      <c r="K10">
         <v>17</v>
       </c>
-      <c r="B6">
-        <v>146.81</v>
-      </c>
-      <c r="C6">
-        <v>29.2</v>
-      </c>
-      <c r="D6">
-        <v>25.56</v>
-      </c>
-      <c r="E6">
+      <c r="L10">
+        <v>23.31</v>
+      </c>
+      <c r="M10">
+        <v>13.88</v>
+      </c>
+      <c r="N10">
+        <v>0.17</v>
+      </c>
+      <c r="O10">
+        <v>30.52</v>
+      </c>
+      <c r="P10">
+        <v>27.15</v>
+      </c>
+      <c r="Q10">
+        <v>69.48</v>
+      </c>
+      <c r="R10">
+        <v>103915.65</v>
+      </c>
+      <c r="S10">
+        <v>12.58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
+        <v>157.17</v>
+      </c>
+      <c r="D11">
+        <v>43.47</v>
+      </c>
+      <c r="E11">
+        <v>40.48</v>
+      </c>
+      <c r="F11">
+        <v>38.96</v>
+      </c>
+      <c r="G11">
+        <v>29.96</v>
+      </c>
+      <c r="H11">
+        <v>27.65</v>
+      </c>
+      <c r="I11">
+        <v>25.75</v>
+      </c>
+      <c r="J11">
+        <v>24.79</v>
+      </c>
+      <c r="K11">
+        <v>19.06</v>
+      </c>
+      <c r="L11">
+        <v>25.16</v>
+      </c>
+      <c r="M11">
+        <v>16.15</v>
+      </c>
+      <c r="N11">
+        <v>0.15</v>
+      </c>
+      <c r="O11">
+        <v>26.71</v>
+      </c>
+      <c r="P11">
+        <v>24.29</v>
+      </c>
+      <c r="Q11">
+        <v>73.29000000000001</v>
+      </c>
+      <c r="R11">
+        <v>127760.56</v>
+      </c>
+      <c r="S11">
+        <v>11.92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
+        <v>166.94</v>
+      </c>
+      <c r="D12">
+        <v>47.39</v>
+      </c>
+      <c r="E12">
+        <v>44.24</v>
+      </c>
+      <c r="F12">
+        <v>42.77</v>
+      </c>
+      <c r="G12">
+        <v>33.19</v>
+      </c>
+      <c r="H12">
+        <v>28.38</v>
+      </c>
+      <c r="I12">
+        <v>26.49</v>
+      </c>
+      <c r="J12">
+        <v>25.61</v>
+      </c>
+      <c r="K12">
+        <v>19.88</v>
+      </c>
+      <c r="L12">
+        <v>23.66</v>
+      </c>
+      <c r="M12">
+        <v>15.34</v>
+      </c>
+      <c r="N12">
+        <v>0.17</v>
+      </c>
+      <c r="O12">
+        <v>36.17</v>
+      </c>
+      <c r="P12">
+        <v>33.03</v>
+      </c>
+      <c r="Q12">
+        <v>63.83</v>
+      </c>
+      <c r="R12">
+        <v>145338.53</v>
+      </c>
+      <c r="S12">
+        <v>12.42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
+        <v>180.86</v>
+      </c>
+      <c r="D13">
+        <v>48.65</v>
+      </c>
+      <c r="E13">
+        <v>45.11</v>
+      </c>
+      <c r="F13">
+        <v>42.88</v>
+      </c>
+      <c r="G13">
+        <v>33.19</v>
+      </c>
+      <c r="H13">
+        <v>26.9</v>
+      </c>
+      <c r="I13">
+        <v>24.94</v>
+      </c>
+      <c r="J13">
+        <v>23.71</v>
+      </c>
+      <c r="K13">
+        <v>18.35</v>
+      </c>
+      <c r="L13">
+        <v>19.89</v>
+      </c>
+      <c r="M13">
+        <v>13.91</v>
+      </c>
+      <c r="N13">
+        <v>0.16</v>
+      </c>
+      <c r="O13">
+        <v>43.49</v>
+      </c>
+      <c r="P13">
+        <v>39.3</v>
+      </c>
+      <c r="Q13">
+        <v>56.51</v>
+      </c>
+      <c r="R13">
+        <v>137462.82</v>
+      </c>
+      <c r="S13">
+        <v>11.44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
+        <v>189.46</v>
+      </c>
+      <c r="D14">
+        <v>50.21</v>
+      </c>
+      <c r="E14">
+        <v>45.9</v>
+      </c>
+      <c r="F14">
+        <v>43.97</v>
+      </c>
+      <c r="G14">
+        <v>33.58</v>
+      </c>
+      <c r="H14">
+        <v>26.5</v>
+      </c>
+      <c r="I14">
         <v>24.22</v>
       </c>
-      <c r="F6">
-        <v>20.3</v>
-      </c>
-      <c r="G6">
-        <v>19.89</v>
-      </c>
-      <c r="H6">
-        <v>17.41</v>
-      </c>
-      <c r="I6">
-        <v>16.49</v>
-      </c>
-      <c r="J6">
-        <v>13.82</v>
-      </c>
-      <c r="K6">
-        <v>23.76</v>
-      </c>
-      <c r="L6">
-        <v>11.94</v>
-      </c>
-      <c r="M6">
-        <v>0.4</v>
-      </c>
-      <c r="N6">
-        <v>19.7</v>
-      </c>
-      <c r="O6">
-        <v>16.7</v>
-      </c>
-      <c r="P6">
-        <v>80.3</v>
-      </c>
-      <c r="Q6">
-        <v>36555.8</v>
-      </c>
-      <c r="R6">
-        <v>8.539999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>156.14</v>
-      </c>
-      <c r="C7">
-        <v>43.38</v>
-      </c>
-      <c r="D7">
-        <v>39.43</v>
-      </c>
-      <c r="E7">
-        <v>38.75</v>
-      </c>
-      <c r="F7">
-        <v>33.37</v>
-      </c>
-      <c r="G7">
-        <v>27.78</v>
-      </c>
-      <c r="H7">
-        <v>25.25</v>
-      </c>
-      <c r="I7">
-        <v>24.81</v>
-      </c>
-      <c r="J7">
-        <v>21.36</v>
-      </c>
-      <c r="K7">
-        <v>27.68</v>
-      </c>
-      <c r="L7">
-        <v>16.15</v>
-      </c>
-      <c r="M7">
-        <v>0.31</v>
-      </c>
-      <c r="N7">
-        <v>17.98</v>
-      </c>
-      <c r="O7">
-        <v>16.08</v>
-      </c>
-      <c r="P7">
-        <v>82.02</v>
-      </c>
-      <c r="Q7">
-        <v>103624.14</v>
-      </c>
-      <c r="R7">
-        <v>16.27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>107.17</v>
-      </c>
-      <c r="C8">
-        <v>26.25</v>
-      </c>
-      <c r="D8">
-        <v>23.8</v>
-      </c>
-      <c r="E8">
-        <v>23.25</v>
-      </c>
-      <c r="F8">
-        <v>19.74</v>
-      </c>
-      <c r="G8">
-        <v>24.49</v>
-      </c>
-      <c r="H8">
-        <v>22.21</v>
-      </c>
-      <c r="I8">
-        <v>21.69</v>
-      </c>
-      <c r="J8">
-        <v>18.41</v>
-      </c>
-      <c r="K8">
-        <v>22.71</v>
-      </c>
-      <c r="L8">
-        <v>14.19</v>
-      </c>
-      <c r="M8">
-        <v>0.22</v>
-      </c>
-      <c r="N8">
-        <v>30.4</v>
-      </c>
-      <c r="O8">
-        <v>27.05</v>
-      </c>
-      <c r="P8">
-        <v>69.59999999999999</v>
-      </c>
-      <c r="Q8">
-        <v>116882.32</v>
-      </c>
-      <c r="R8">
-        <v>18.14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" t="s">
+      <c r="J14">
+        <v>23.2</v>
+      </c>
+      <c r="K14">
+        <v>17.72</v>
+      </c>
+      <c r="L14">
+        <v>17.47</v>
+      </c>
+      <c r="M14">
+        <v>12.92</v>
+      </c>
+      <c r="N14">
+        <v>0.13</v>
+      </c>
+      <c r="O14">
+        <v>10.75</v>
+      </c>
+      <c r="P14">
+        <v>9.52</v>
+      </c>
+      <c r="Q14">
+        <v>89.25</v>
+      </c>
+      <c r="R14">
+        <v>127904.12</v>
+      </c>
+      <c r="S14">
+        <v>10.48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>98.83</v>
+      </c>
+      <c r="D15">
+        <v>25.27</v>
+      </c>
+      <c r="E15">
+        <v>23.03</v>
+      </c>
+      <c r="F15">
+        <v>22.18</v>
+      </c>
+      <c r="G15">
+        <v>17.07</v>
+      </c>
+      <c r="H15">
+        <v>25.57</v>
+      </c>
+      <c r="I15">
+        <v>23.3</v>
+      </c>
+      <c r="J15">
+        <v>22.44</v>
+      </c>
+      <c r="K15">
+        <v>17.27</v>
+      </c>
+      <c r="L15">
+        <v>18.27</v>
+      </c>
+      <c r="M15">
+        <v>13.16</v>
+      </c>
+      <c r="N15">
+        <v>0.11</v>
+      </c>
+      <c r="O15">
+        <v>7.05</v>
+      </c>
+      <c r="P15">
+        <v>6.23</v>
+      </c>
+      <c r="Q15">
+        <v>92.95</v>
+      </c>
+      <c r="R15">
+        <v>129726.08</v>
+      </c>
+      <c r="S15">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <v>79.75</v>
+      </c>
+      <c r="D16">
+        <v>18.78</v>
+      </c>
+      <c r="E16">
+        <v>17.23</v>
+      </c>
+      <c r="F16">
+        <v>16.36</v>
+      </c>
+      <c r="G16">
+        <v>12.62</v>
+      </c>
+      <c r="H16">
+        <v>23.54</v>
+      </c>
+      <c r="I16">
+        <v>21.6</v>
+      </c>
+      <c r="J16">
+        <v>20.51</v>
+      </c>
+      <c r="K16">
+        <v>15.82</v>
+      </c>
+      <c r="L16">
+        <v>15.41</v>
+      </c>
+      <c r="M16">
+        <v>11.36</v>
+      </c>
+      <c r="N16">
+        <v>0.1</v>
+      </c>
+      <c r="O16">
+        <v>7.16</v>
+      </c>
+      <c r="P16">
+        <v>6.38</v>
+      </c>
+      <c r="Q16">
+        <v>92.84</v>
+      </c>
+      <c r="R16">
+        <v>148400.15</v>
+      </c>
+      <c r="S16">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
+        <v>88.22</v>
+      </c>
+      <c r="D17">
+        <v>22.2</v>
+      </c>
+      <c r="E17">
+        <v>20.2</v>
+      </c>
+      <c r="F17">
+        <v>19.27</v>
+      </c>
+      <c r="G17">
+        <v>15.19</v>
+      </c>
+      <c r="H17">
+        <v>25.16</v>
+      </c>
+      <c r="I17">
+        <v>22.89</v>
+      </c>
+      <c r="J17">
+        <v>21.83</v>
+      </c>
+      <c r="K17">
+        <v>17.22</v>
+      </c>
+      <c r="L17">
+        <v>18.68</v>
+      </c>
+      <c r="M17">
+        <v>13.29</v>
+      </c>
+      <c r="N17">
+        <v>0.11</v>
+      </c>
+      <c r="O17">
+        <v>7.93</v>
+      </c>
+      <c r="P17">
+        <v>7.01</v>
+      </c>
+      <c r="Q17">
+        <v>92.06999999999999</v>
+      </c>
+      <c r="R17">
+        <v>106910.41</v>
+      </c>
+      <c r="S17">
+        <v>8.43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
+        <v>91.8</v>
+      </c>
+      <c r="D18">
+        <v>26.35</v>
+      </c>
+      <c r="E18">
+        <v>23.89</v>
+      </c>
+      <c r="F18">
+        <v>23.15</v>
+      </c>
+      <c r="G18">
+        <v>18.36</v>
+      </c>
+      <c r="H18">
+        <v>28.7</v>
+      </c>
+      <c r="I18">
+        <v>26.01</v>
+      </c>
+      <c r="J18">
+        <v>25.21</v>
+      </c>
+      <c r="K18">
         <v>20</v>
       </c>
-      <c r="B9">
-        <v>128.87</v>
-      </c>
-      <c r="C9">
-        <v>29.57</v>
-      </c>
-      <c r="D9">
-        <v>26.54</v>
-      </c>
-      <c r="E9">
-        <v>24.07</v>
-      </c>
-      <c r="F9">
-        <v>19.06</v>
-      </c>
-      <c r="G9">
-        <v>22.94</v>
-      </c>
-      <c r="H9">
-        <v>20.59</v>
-      </c>
-      <c r="I9">
-        <v>18.68</v>
-      </c>
-      <c r="J9">
-        <v>14.78</v>
-      </c>
-      <c r="K9">
-        <v>19.23</v>
-      </c>
-      <c r="L9">
-        <v>12.13</v>
-      </c>
-      <c r="M9">
-        <v>0.22</v>
-      </c>
-      <c r="N9">
-        <v>31.48</v>
-      </c>
-      <c r="O9">
-        <v>27.16</v>
-      </c>
-      <c r="P9">
-        <v>68.52</v>
-      </c>
-      <c r="Q9">
-        <v>106938.55</v>
-      </c>
-      <c r="R9">
-        <v>14.71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>134.9</v>
-      </c>
-      <c r="C10">
-        <v>33.53</v>
-      </c>
-      <c r="D10">
-        <v>30.68</v>
-      </c>
-      <c r="E10">
-        <v>29.25</v>
-      </c>
-      <c r="F10">
-        <v>22.94</v>
-      </c>
-      <c r="G10">
-        <v>24.85</v>
-      </c>
-      <c r="H10">
-        <v>22.74</v>
-      </c>
-      <c r="I10">
-        <v>21.68</v>
-      </c>
-      <c r="J10">
-        <v>17</v>
-      </c>
-      <c r="K10">
-        <v>23.31</v>
-      </c>
-      <c r="L10">
+      <c r="L18">
+        <v>22.23</v>
+      </c>
+      <c r="M18">
+        <v>15.3</v>
+      </c>
+      <c r="N18">
+        <v>0.13</v>
+      </c>
+      <c r="O18">
+        <v>5.44</v>
+      </c>
+      <c r="P18">
+        <v>4.8</v>
+      </c>
+      <c r="Q18">
+        <v>94.56</v>
+      </c>
+      <c r="R18">
+        <v>222962.28</v>
+      </c>
+      <c r="S18">
+        <v>15.44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19">
+        <v>108.67</v>
+      </c>
+      <c r="D19">
+        <v>31.22</v>
+      </c>
+      <c r="E19">
+        <v>28.51</v>
+      </c>
+      <c r="F19">
+        <v>27.84</v>
+      </c>
+      <c r="G19">
+        <v>22.14</v>
+      </c>
+      <c r="H19">
+        <v>28.73</v>
+      </c>
+      <c r="I19">
+        <v>26.23</v>
+      </c>
+      <c r="J19">
+        <v>25.62</v>
+      </c>
+      <c r="K19">
+        <v>20.36</v>
+      </c>
+      <c r="L19">
+        <v>22.32</v>
+      </c>
+      <c r="M19">
+        <v>15.09</v>
+      </c>
+      <c r="N19">
+        <v>0.14</v>
+      </c>
+      <c r="O19">
+        <v>27.1</v>
+      </c>
+      <c r="P19">
+        <v>24.14</v>
+      </c>
+      <c r="Q19">
+        <v>72.90000000000001</v>
+      </c>
+      <c r="R19">
+        <v>327315.4</v>
+      </c>
+      <c r="S19">
+        <v>19.12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
+        <v>123.46</v>
+      </c>
+      <c r="D20">
+        <v>26.4</v>
+      </c>
+      <c r="E20">
+        <v>23.5</v>
+      </c>
+      <c r="F20">
+        <v>22.36</v>
+      </c>
+      <c r="G20">
+        <v>16.72</v>
+      </c>
+      <c r="H20">
+        <v>21.38</v>
+      </c>
+      <c r="I20">
+        <v>19.03</v>
+      </c>
+      <c r="J20">
+        <v>18.1</v>
+      </c>
+      <c r="K20">
+        <v>13.54</v>
+      </c>
+      <c r="L20">
+        <v>14.62</v>
+      </c>
+      <c r="M20">
+        <v>10.75</v>
+      </c>
+      <c r="N20">
+        <v>0.08</v>
+      </c>
+      <c r="O20">
+        <v>5.97</v>
+      </c>
+      <c r="P20">
+        <v>5.09</v>
+      </c>
+      <c r="Q20">
+        <v>94.03</v>
+      </c>
+      <c r="R20">
+        <v>201130.34</v>
+      </c>
+      <c r="S20">
         <v>13.88</v>
       </c>
-      <c r="M10">
-        <v>0.17</v>
-      </c>
-      <c r="N10">
-        <v>30.52</v>
-      </c>
-      <c r="O10">
-        <v>27.15</v>
-      </c>
-      <c r="P10">
-        <v>69.48</v>
-      </c>
-      <c r="Q10">
-        <v>103915.65</v>
-      </c>
-      <c r="R10">
-        <v>12.58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>157.17</v>
-      </c>
-      <c r="C11">
-        <v>43.47</v>
-      </c>
-      <c r="D11">
-        <v>40.48</v>
-      </c>
-      <c r="E11">
-        <v>38.96</v>
-      </c>
-      <c r="F11">
-        <v>29.96</v>
-      </c>
-      <c r="G11">
-        <v>27.65</v>
-      </c>
-      <c r="H11">
-        <v>25.75</v>
-      </c>
-      <c r="I11">
-        <v>24.79</v>
-      </c>
-      <c r="J11">
-        <v>19.06</v>
-      </c>
-      <c r="K11">
-        <v>25.16</v>
-      </c>
-      <c r="L11">
-        <v>16.15</v>
-      </c>
-      <c r="M11">
-        <v>0.15</v>
-      </c>
-      <c r="N11">
-        <v>26.71</v>
-      </c>
-      <c r="O11">
-        <v>24.29</v>
-      </c>
-      <c r="P11">
-        <v>73.29000000000001</v>
-      </c>
-      <c r="Q11">
-        <v>127760.56</v>
-      </c>
-      <c r="R11">
-        <v>11.92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
-        <v>166.94</v>
-      </c>
-      <c r="C12">
-        <v>47.39</v>
-      </c>
-      <c r="D12">
-        <v>44.24</v>
-      </c>
-      <c r="E12">
-        <v>42.77</v>
-      </c>
-      <c r="F12">
-        <v>33.19</v>
-      </c>
-      <c r="G12">
-        <v>28.38</v>
-      </c>
-      <c r="H12">
-        <v>26.49</v>
-      </c>
-      <c r="I12">
-        <v>25.61</v>
-      </c>
-      <c r="J12">
-        <v>19.88</v>
-      </c>
-      <c r="K12">
-        <v>23.66</v>
-      </c>
-      <c r="L12">
-        <v>15.34</v>
-      </c>
-      <c r="M12">
-        <v>0.17</v>
-      </c>
-      <c r="N12">
-        <v>36.17</v>
-      </c>
-      <c r="O12">
-        <v>33.03</v>
-      </c>
-      <c r="P12">
-        <v>63.83</v>
-      </c>
-      <c r="Q12">
-        <v>145338.53</v>
-      </c>
-      <c r="R12">
-        <v>12.42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <v>180.86</v>
-      </c>
-      <c r="C13">
-        <v>48.65</v>
-      </c>
-      <c r="D13">
-        <v>45.11</v>
-      </c>
-      <c r="E13">
-        <v>42.88</v>
-      </c>
-      <c r="F13">
-        <v>33.19</v>
-      </c>
-      <c r="G13">
-        <v>26.9</v>
-      </c>
-      <c r="H13">
-        <v>24.94</v>
-      </c>
-      <c r="I13">
-        <v>23.71</v>
-      </c>
-      <c r="J13">
-        <v>18.35</v>
-      </c>
-      <c r="K13">
-        <v>19.89</v>
-      </c>
-      <c r="L13">
-        <v>13.91</v>
-      </c>
-      <c r="M13">
-        <v>0.16</v>
-      </c>
-      <c r="N13">
-        <v>43.49</v>
-      </c>
-      <c r="O13">
-        <v>39.3</v>
-      </c>
-      <c r="P13">
-        <v>56.51</v>
-      </c>
-      <c r="Q13">
-        <v>137462.82</v>
-      </c>
-      <c r="R13">
-        <v>11.44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>189.46</v>
-      </c>
-      <c r="C14">
-        <v>50.21</v>
-      </c>
-      <c r="D14">
-        <v>45.9</v>
-      </c>
-      <c r="E14">
-        <v>43.97</v>
-      </c>
-      <c r="F14">
-        <v>33.58</v>
-      </c>
-      <c r="G14">
-        <v>26.5</v>
-      </c>
-      <c r="H14">
-        <v>24.22</v>
-      </c>
-      <c r="I14">
-        <v>23.2</v>
-      </c>
-      <c r="J14">
-        <v>17.72</v>
-      </c>
-      <c r="K14">
-        <v>17.47</v>
-      </c>
-      <c r="L14">
-        <v>12.92</v>
-      </c>
-      <c r="M14">
-        <v>0.13</v>
-      </c>
-      <c r="N14">
-        <v>10.75</v>
-      </c>
-      <c r="O14">
-        <v>9.52</v>
-      </c>
-      <c r="P14">
-        <v>89.25</v>
-      </c>
-      <c r="Q14">
-        <v>127904.12</v>
-      </c>
-      <c r="R14">
-        <v>10.48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
-        <v>98.83</v>
-      </c>
-      <c r="C15">
-        <v>25.27</v>
-      </c>
-      <c r="D15">
-        <v>23.03</v>
-      </c>
-      <c r="E15">
-        <v>22.18</v>
-      </c>
-      <c r="F15">
-        <v>17.07</v>
-      </c>
-      <c r="G15">
-        <v>25.57</v>
-      </c>
-      <c r="H15">
-        <v>23.3</v>
-      </c>
-      <c r="I15">
-        <v>22.44</v>
-      </c>
-      <c r="J15">
-        <v>17.27</v>
-      </c>
-      <c r="K15">
-        <v>18.27</v>
-      </c>
-      <c r="L15">
-        <v>13.16</v>
-      </c>
-      <c r="M15">
-        <v>0.11</v>
-      </c>
-      <c r="N15">
-        <v>7.05</v>
-      </c>
-      <c r="O15">
-        <v>6.23</v>
-      </c>
-      <c r="P15">
-        <v>92.95</v>
-      </c>
-      <c r="Q15">
-        <v>129726.08</v>
-      </c>
-      <c r="R15">
-        <v>11.35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
-        <v>79.75</v>
-      </c>
-      <c r="C16">
-        <v>18.78</v>
-      </c>
-      <c r="D16">
-        <v>17.23</v>
-      </c>
-      <c r="E16">
-        <v>16.36</v>
-      </c>
-      <c r="F16">
-        <v>12.62</v>
-      </c>
-      <c r="G16">
-        <v>23.54</v>
-      </c>
-      <c r="H16">
-        <v>21.6</v>
-      </c>
-      <c r="I16">
-        <v>20.51</v>
-      </c>
-      <c r="J16">
-        <v>15.82</v>
-      </c>
-      <c r="K16">
-        <v>15.41</v>
-      </c>
-      <c r="L16">
-        <v>11.36</v>
-      </c>
-      <c r="M16">
-        <v>0.1</v>
-      </c>
-      <c r="N16">
-        <v>7.16</v>
-      </c>
-      <c r="O16">
-        <v>6.38</v>
-      </c>
-      <c r="P16">
-        <v>92.84</v>
-      </c>
-      <c r="Q16">
-        <v>148400.15</v>
-      </c>
-      <c r="R16">
-        <v>13.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
-        <v>88.22</v>
-      </c>
-      <c r="C17">
-        <v>22.2</v>
-      </c>
-      <c r="D17">
-        <v>20.2</v>
-      </c>
-      <c r="E17">
-        <v>19.27</v>
-      </c>
-      <c r="F17">
-        <v>15.19</v>
-      </c>
-      <c r="G17">
-        <v>25.16</v>
-      </c>
-      <c r="H17">
-        <v>22.89</v>
-      </c>
-      <c r="I17">
-        <v>21.83</v>
-      </c>
-      <c r="J17">
-        <v>17.22</v>
-      </c>
-      <c r="K17">
-        <v>18.68</v>
-      </c>
-      <c r="L17">
-        <v>13.29</v>
-      </c>
-      <c r="M17">
-        <v>0.11</v>
-      </c>
-      <c r="N17">
-        <v>7.93</v>
-      </c>
-      <c r="O17">
-        <v>7.01</v>
-      </c>
-      <c r="P17">
-        <v>92.06999999999999</v>
-      </c>
-      <c r="Q17">
-        <v>106910.41</v>
-      </c>
-      <c r="R17">
-        <v>8.43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
-        <v>91.8</v>
-      </c>
-      <c r="C18">
-        <v>26.35</v>
-      </c>
-      <c r="D18">
-        <v>23.89</v>
-      </c>
-      <c r="E18">
-        <v>23.15</v>
-      </c>
-      <c r="F18">
-        <v>18.36</v>
-      </c>
-      <c r="G18">
-        <v>28.7</v>
-      </c>
-      <c r="H18">
-        <v>26.01</v>
-      </c>
-      <c r="I18">
-        <v>25.21</v>
-      </c>
-      <c r="J18">
-        <v>20</v>
-      </c>
-      <c r="K18">
-        <v>22.23</v>
-      </c>
-      <c r="L18">
-        <v>15.3</v>
-      </c>
-      <c r="M18">
-        <v>0.13</v>
-      </c>
-      <c r="N18">
-        <v>5.44</v>
-      </c>
-      <c r="O18">
-        <v>4.8</v>
-      </c>
-      <c r="P18">
-        <v>94.56</v>
-      </c>
-      <c r="Q18">
-        <v>222962.28</v>
-      </c>
-      <c r="R18">
-        <v>15.44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
-        <v>108.67</v>
-      </c>
-      <c r="C19">
-        <v>31.22</v>
-      </c>
-      <c r="D19">
-        <v>28.51</v>
-      </c>
-      <c r="E19">
-        <v>27.84</v>
-      </c>
-      <c r="F19">
-        <v>22.14</v>
-      </c>
-      <c r="G19">
-        <v>28.73</v>
-      </c>
-      <c r="H19">
-        <v>26.23</v>
-      </c>
-      <c r="I19">
-        <v>25.62</v>
-      </c>
-      <c r="J19">
-        <v>20.36</v>
-      </c>
-      <c r="K19">
-        <v>22.32</v>
-      </c>
-      <c r="L19">
-        <v>15.09</v>
-      </c>
-      <c r="M19">
-        <v>0.14</v>
-      </c>
-      <c r="N19">
-        <v>27.1</v>
-      </c>
-      <c r="O19">
-        <v>24.14</v>
-      </c>
-      <c r="P19">
-        <v>72.90000000000001</v>
-      </c>
-      <c r="Q19">
-        <v>327315.4</v>
-      </c>
-      <c r="R19">
-        <v>19.12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
-        <v>123.46</v>
-      </c>
-      <c r="C20">
-        <v>26.4</v>
-      </c>
-      <c r="D20">
-        <v>23.5</v>
-      </c>
-      <c r="E20">
-        <v>22.36</v>
-      </c>
-      <c r="F20">
-        <v>16.72</v>
-      </c>
-      <c r="G20">
-        <v>21.38</v>
-      </c>
-      <c r="H20">
-        <v>19.03</v>
-      </c>
-      <c r="I20">
-        <v>18.1</v>
-      </c>
-      <c r="J20">
-        <v>13.54</v>
-      </c>
-      <c r="K20">
-        <v>14.62</v>
-      </c>
-      <c r="L20">
-        <v>10.75</v>
-      </c>
-      <c r="M20">
-        <v>0.08</v>
-      </c>
-      <c r="N20">
-        <v>5.97</v>
-      </c>
-      <c r="O20">
-        <v>5.09</v>
-      </c>
-      <c r="P20">
-        <v>94.03</v>
-      </c>
-      <c r="Q20">
-        <v>201130.34</v>
-      </c>
-      <c r="R20">
-        <v>13.88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
         <v>127.83</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>28.19</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>25.33</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>23.77</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>17.45</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>22.05</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>19.81</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>18.59</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>13.65</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>15.78</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>11.16</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0.07000000000000001</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>5.72</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>4.92</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>94.28</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>251210.53</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>17.06</v>
       </c>
     </row>
